--- a/app/PackagingPlusInvoices.xlsx
+++ b/app/PackagingPlusInvoices.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Aug2020" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sep2020" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -769,4 +770,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44082.16666666667</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <f>SUM($B$2:$K$2)</f>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44079.16666666667</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <f>SUM($B$3:$K$3)</f>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44084.16666666667</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <f>SUM($B$4:$K$4)</f>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>SUM($B$2:$B$5)</f>
+      </c>
+      <c r="C6">
+        <f>SUM($C$2:$C$5)</f>
+      </c>
+      <c r="D6">
+        <f>SUM($D$2:$D$5)</f>
+      </c>
+      <c r="E6">
+        <f>SUM($E$2:$E$5)</f>
+      </c>
+      <c r="F6">
+        <f>SUM($F$2:$F$5)</f>
+      </c>
+      <c r="G6">
+        <f>SUM($G$2:$G$5)</f>
+      </c>
+      <c r="H6">
+        <f>SUM($H$2:$H$5)</f>
+      </c>
+      <c r="I6">
+        <f>SUM($I$2:$I$5)</f>
+      </c>
+      <c r="J6">
+        <f>SUM($J$2:$J$5)</f>
+      </c>
+      <c r="K6">
+        <f>SUM($K$2:$K$5)</f>
+      </c>
+      <c r="L6">
+        <f>SUM($L$2:$L$5)</f>
+      </c>
+      <c r="M6">
+        <f>SUM($M$2:$M$5)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
 </file>
--- a/app/PackagingPlusInvoices.xlsx
+++ b/app/PackagingPlusInvoices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -774,7 +774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -941,45 +941,127 @@
         <f>SUM($B$4:$K$4)</f>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44088.775162465274</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <f>SUM($B$5:$K$5)</f>
+      </c>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2">
+        <v>44088.78134663195</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <f>SUM($B$6:$K$6)</f>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <f>SUM($B$2:$B$5)</f>
-      </c>
-      <c r="C6">
-        <f>SUM($C$2:$C$5)</f>
-      </c>
-      <c r="D6">
-        <f>SUM($D$2:$D$5)</f>
-      </c>
-      <c r="E6">
-        <f>SUM($E$2:$E$5)</f>
-      </c>
-      <c r="F6">
-        <f>SUM($F$2:$F$5)</f>
-      </c>
-      <c r="G6">
-        <f>SUM($G$2:$G$5)</f>
-      </c>
-      <c r="H6">
-        <f>SUM($H$2:$H$5)</f>
-      </c>
-      <c r="I6">
-        <f>SUM($I$2:$I$5)</f>
-      </c>
-      <c r="J6">
-        <f>SUM($J$2:$J$5)</f>
-      </c>
-      <c r="K6">
-        <f>SUM($K$2:$K$5)</f>
-      </c>
-      <c r="L6">
-        <f>SUM($L$2:$L$5)</f>
-      </c>
-      <c r="M6">
-        <f>SUM($M$2:$M$5)</f>
+      <c r="B8">
+        <f>SUM($B$2:$B$7)</f>
+      </c>
+      <c r="C8">
+        <f>SUM($C$2:$C$7)</f>
+      </c>
+      <c r="D8">
+        <f>SUM($D$2:$D$7)</f>
+      </c>
+      <c r="E8">
+        <f>SUM($E$2:$E$7)</f>
+      </c>
+      <c r="F8">
+        <f>SUM($F$2:$F$7)</f>
+      </c>
+      <c r="G8">
+        <f>SUM($G$2:$G$7)</f>
+      </c>
+      <c r="H8">
+        <f>SUM($H$2:$H$7)</f>
+      </c>
+      <c r="I8">
+        <f>SUM($I$2:$I$7)</f>
+      </c>
+      <c r="J8">
+        <f>SUM($J$2:$J$7)</f>
+      </c>
+      <c r="K8">
+        <f>SUM($K$2:$K$7)</f>
+      </c>
+      <c r="L8">
+        <f>SUM($L$2:$L$7)</f>
+      </c>
+      <c r="M8">
+        <f>SUM($M$2:$M$7)</f>
       </c>
     </row>
   </sheetData>
